--- a/Iris.xlsx
+++ b/Iris.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Table1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="20">
   <si>
     <t xml:space="preserve">Project 2 </t>
   </si>
@@ -40,6 +41,9 @@
   </si>
   <si>
     <t>Species</t>
+  </si>
+  <si>
+    <t>Full Name</t>
   </si>
   <si>
     <t>Iris</t>
@@ -80,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -117,14 +121,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,13 +137,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,14 +188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -208,10 +197,25 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,13 +292,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,25 +316,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,13 +328,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,13 +346,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,7 +376,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,19 +394,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,19 +442,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,21 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -598,6 +587,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -634,60 +638,60 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,10 +700,10 @@
     <xf numFmtId="0" fontId="19" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -714,58 +718,58 @@
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -805,7 +809,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -860,6 +864,104 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3371,6 +3473,22 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:G154" totalsRowShown="0">
+  <autoFilter ref="A4:G154"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="SepalLength" dataDxfId="0"/>
+    <tableColumn id="2" name="SepalWidth" dataDxfId="1"/>
+    <tableColumn id="3" name="PetalLength" dataDxfId="2"/>
+    <tableColumn id="4" name="PetalWidth" dataDxfId="3"/>
+    <tableColumn id="5" name="Genus" dataDxfId="4"/>
+    <tableColumn id="6" name="Species" dataDxfId="5"/>
+    <tableColumn id="7" name="Full Name" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -3633,10 +3751,10 @@
   </sheetPr>
   <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -3694,7 +3812,9 @@
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="6">
@@ -3710,12 +3830,15 @@
         <v>0.2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G5" s="15" t="str">
+        <f>E5&amp;"-"&amp;F5</f>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6">
@@ -3731,12 +3854,15 @@
         <v>0.2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G6" s="15" t="str">
+        <f t="shared" ref="G6:G37" si="0">E6&amp;"-"&amp;F6</f>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6">
@@ -3752,12 +3878,15 @@
         <v>0.2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6">
@@ -3773,12 +3902,15 @@
         <v>0.2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6">
@@ -3794,12 +3926,15 @@
         <v>0.2</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6">
@@ -3815,12 +3950,15 @@
         <v>0.4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6">
@@ -3836,12 +3974,15 @@
         <v>0.3</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6">
@@ -3857,12 +3998,15 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6">
@@ -3878,12 +4022,15 @@
         <v>0.2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6">
@@ -3899,12 +4046,15 @@
         <v>0.1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6">
@@ -3920,12 +4070,15 @@
         <v>0.2</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6">
@@ -3941,12 +4094,15 @@
         <v>0.2</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6">
@@ -3962,12 +4118,15 @@
         <v>0.1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6">
@@ -3983,12 +4142,15 @@
         <v>0.1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6">
@@ -4004,12 +4166,15 @@
         <v>0.2</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6">
@@ -4025,12 +4190,15 @@
         <v>0.4</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6">
@@ -4046,12 +4214,15 @@
         <v>0.4</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6">
@@ -4067,12 +4238,15 @@
         <v>0.3</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G22" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6">
@@ -4088,12 +4262,15 @@
         <v>0.3</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G23" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6">
@@ -4109,12 +4286,15 @@
         <v>0.3</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G24" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6">
@@ -4130,12 +4310,15 @@
         <v>0.2</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G25" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="6">
@@ -4151,12 +4334,15 @@
         <v>0.4</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G26" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="6">
@@ -4172,12 +4358,15 @@
         <v>0.2</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G27" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="6">
@@ -4193,12 +4382,15 @@
         <v>0.5</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G28" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="6">
@@ -4214,12 +4406,15 @@
         <v>0.2</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G29" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="6">
@@ -4235,12 +4430,15 @@
         <v>0.2</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G30" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="6">
@@ -4256,12 +4454,15 @@
         <v>0.4</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G31" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="6">
@@ -4277,12 +4478,15 @@
         <v>0.2</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G32" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="6">
@@ -4298,12 +4502,15 @@
         <v>0.2</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G33" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="6">
@@ -4319,12 +4526,15 @@
         <v>0.2</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G34" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="6">
@@ -4340,12 +4550,15 @@
         <v>0.2</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G35" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6">
@@ -4361,12 +4574,15 @@
         <v>0.4</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G36" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="6">
@@ -4382,12 +4598,15 @@
         <v>0.1</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G37" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="6">
@@ -4403,12 +4622,15 @@
         <v>0.2</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G38" s="15" t="str">
+        <f t="shared" ref="G38:G69" si="1">E38&amp;"-"&amp;F38</f>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6">
@@ -4424,12 +4646,15 @@
         <v>0.1</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G39" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="6">
@@ -4445,12 +4670,15 @@
         <v>0.2</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G40" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="6">
@@ -4466,12 +4694,15 @@
         <v>0.2</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G41" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="6">
@@ -4487,12 +4718,15 @@
         <v>0.1</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G42" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="6">
@@ -4508,12 +4742,15 @@
         <v>0.2</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G43" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="6">
@@ -4529,12 +4766,15 @@
         <v>0.2</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G44" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6">
@@ -4550,12 +4790,15 @@
         <v>0.3</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G45" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="6">
@@ -4571,12 +4814,15 @@
         <v>0.3</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G46" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="6">
@@ -4592,12 +4838,15 @@
         <v>0.2</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G47" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="6">
@@ -4613,12 +4862,15 @@
         <v>0.6</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G48" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="6">
@@ -4634,12 +4886,15 @@
         <v>0.4</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G49" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="6">
@@ -4655,12 +4910,15 @@
         <v>0.3</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G50" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="6">
@@ -4676,12 +4934,15 @@
         <v>0.2</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G51" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="6">
@@ -4697,12 +4958,15 @@
         <v>0.2</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G52" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="6">
@@ -4718,12 +4982,15 @@
         <v>0.2</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G53" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="6">
@@ -4739,12 +5006,15 @@
         <v>0.2</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G54" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="6">
@@ -4760,12 +5030,15 @@
         <v>1.4</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G55" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="6">
@@ -4781,12 +5054,15 @@
         <v>1.5</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G56" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="6">
@@ -4802,12 +5078,15 @@
         <v>1.5</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G57" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="6">
@@ -4823,12 +5102,15 @@
         <v>1.3</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G58" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="6">
@@ -4844,12 +5126,15 @@
         <v>1.5</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G59" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="6">
@@ -4865,12 +5150,15 @@
         <v>1.3</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G60" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="6">
@@ -4886,12 +5174,15 @@
         <v>1.6</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G61" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="6">
@@ -4907,12 +5198,15 @@
         <v>1</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G62" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="6">
@@ -4928,12 +5222,15 @@
         <v>1.3</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G63" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="6">
@@ -4949,12 +5246,15 @@
         <v>1.4</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G64" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="6">
@@ -4970,12 +5270,15 @@
         <v>1</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G65" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="6">
@@ -4991,12 +5294,15 @@
         <v>1.5</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G66" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="6">
@@ -5012,12 +5318,15 @@
         <v>1</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G67" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="6">
@@ -5033,12 +5342,15 @@
         <v>1.4</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G68" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="6">
@@ -5054,12 +5366,15 @@
         <v>1.3</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G69" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="6">
@@ -5075,12 +5390,15 @@
         <v>1.4</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G70" s="15" t="str">
+        <f t="shared" ref="G70:G101" si="2">E70&amp;"-"&amp;F70</f>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="6">
@@ -5096,12 +5414,15 @@
         <v>1.5</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G71" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="6">
@@ -5117,12 +5438,15 @@
         <v>1</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G72" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="6">
@@ -5138,12 +5462,15 @@
         <v>1.5</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G73" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="6">
@@ -5159,12 +5486,15 @@
         <v>1.1</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G74" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="6">
@@ -5180,12 +5510,15 @@
         <v>1.8</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G75" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="6">
@@ -5201,12 +5534,15 @@
         <v>1.3</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G76" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="6">
@@ -5222,12 +5558,15 @@
         <v>1.5</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G77" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="6">
@@ -5243,12 +5582,15 @@
         <v>1.2</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G78" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="6">
@@ -5264,12 +5606,15 @@
         <v>1.3</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G79" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="6">
@@ -5285,12 +5630,15 @@
         <v>1.4</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G80" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="6">
@@ -5306,12 +5654,15 @@
         <v>1.4</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G81" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="6">
@@ -5327,12 +5678,15 @@
         <v>1.7</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G82" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="6">
@@ -5348,12 +5702,15 @@
         <v>1.5</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G83" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="6">
@@ -5369,12 +5726,15 @@
         <v>1</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G84" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="6">
@@ -5390,12 +5750,15 @@
         <v>1.1</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G85" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="6">
@@ -5411,12 +5774,15 @@
         <v>1</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G86" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="6">
@@ -5432,12 +5798,15 @@
         <v>1.2</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G87" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="6">
@@ -5453,12 +5822,15 @@
         <v>1.6</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G88" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="6">
@@ -5474,12 +5846,15 @@
         <v>1.5</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G89" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="6">
@@ -5495,12 +5870,15 @@
         <v>1.6</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G90" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="6">
@@ -5516,12 +5894,15 @@
         <v>1.5</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G91" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="6">
@@ -5537,12 +5918,15 @@
         <v>1.3</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G92" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="6">
@@ -5558,12 +5942,15 @@
         <v>1.3</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G93" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="6">
@@ -5579,12 +5966,15 @@
         <v>1.3</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G94" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="6">
@@ -5600,12 +5990,15 @@
         <v>1.2</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G95" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="6">
@@ -5621,12 +6014,15 @@
         <v>1.4</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G96" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="6">
@@ -5642,12 +6038,15 @@
         <v>1.2</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G97" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="6">
@@ -5663,12 +6062,15 @@
         <v>1</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G98" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="6">
@@ -5684,12 +6086,15 @@
         <v>1.3</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G99" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="6">
@@ -5705,12 +6110,15 @@
         <v>1.2</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G100" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="6">
@@ -5726,12 +6134,15 @@
         <v>1.3</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G101" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="6">
@@ -5747,12 +6158,15 @@
         <v>1.3</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G102" s="15" t="str">
+        <f t="shared" ref="G102:G133" si="3">E102&amp;"-"&amp;F102</f>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="6">
@@ -5768,12 +6182,15 @@
         <v>1.1</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G103" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="6">
@@ -5789,12 +6206,15 @@
         <v>1.3</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G104" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-versicolor</v>
+      </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="6">
@@ -5810,12 +6230,15 @@
         <v>2.5</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G105" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="6">
@@ -5831,12 +6254,15 @@
         <v>1.9</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G106" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="6">
@@ -5852,12 +6278,15 @@
         <v>2.1</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G107" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="6">
@@ -5873,12 +6302,15 @@
         <v>1.8</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G108" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="6">
@@ -5894,12 +6326,15 @@
         <v>2.2</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G109" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="6">
@@ -5915,12 +6350,15 @@
         <v>2.1</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G110" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="6">
@@ -5936,12 +6374,15 @@
         <v>1.7</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G111" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="6">
@@ -5957,12 +6398,15 @@
         <v>1.8</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G112" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="6">
@@ -5978,12 +6422,15 @@
         <v>1.8</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G113" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="6">
@@ -5999,12 +6446,15 @@
         <v>2.5</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G114" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="6">
@@ -6020,12 +6470,15 @@
         <v>2</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G115" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="6">
@@ -6041,12 +6494,15 @@
         <v>1.9</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G116" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="6">
@@ -6062,12 +6518,15 @@
         <v>2.1</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G117" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="6">
@@ -6083,12 +6542,15 @@
         <v>2</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G118" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="6">
@@ -6104,12 +6566,15 @@
         <v>2.4</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F119" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G119" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="6">
@@ -6125,12 +6590,15 @@
         <v>2.3</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G120" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="6">
@@ -6146,12 +6614,15 @@
         <v>1.8</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G121" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="6">
@@ -6167,12 +6638,15 @@
         <v>2.2</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G122" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="6">
@@ -6188,12 +6662,15 @@
         <v>2.3</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F123" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G123" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="6">
@@ -6209,12 +6686,15 @@
         <v>1.5</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F124" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G124" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="6">
@@ -6230,12 +6710,15 @@
         <v>2.3</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G125" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="6">
@@ -6251,12 +6734,15 @@
         <v>2</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F126" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G126" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="6">
@@ -6272,12 +6758,15 @@
         <v>2</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F127" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G127" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="6">
@@ -6293,12 +6782,15 @@
         <v>1.8</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F128" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G128" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="6">
@@ -6314,12 +6806,15 @@
         <v>2.1</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G129" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="6">
@@ -6335,12 +6830,15 @@
         <v>1.8</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G130" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="6">
@@ -6356,12 +6854,15 @@
         <v>1.8</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G131" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="6">
@@ -6377,12 +6878,15 @@
         <v>1.8</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G132" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="6">
@@ -6398,12 +6902,15 @@
         <v>2.1</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G133" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="6">
@@ -6419,12 +6926,15 @@
         <v>1.6</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F134" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G134" s="15" t="str">
+        <f t="shared" ref="G134:G154" si="4">E134&amp;"-"&amp;F134</f>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="6">
@@ -6440,12 +6950,15 @@
         <v>1.9</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F135" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G135" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="6">
@@ -6461,12 +6974,15 @@
         <v>2</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F136" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G136" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="6">
@@ -6482,12 +6998,15 @@
         <v>2.2</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F137" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G137" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="6">
@@ -6503,12 +7022,15 @@
         <v>1.5</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F138" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G138" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="6">
@@ -6524,12 +7046,15 @@
         <v>1.4</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F139" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G139" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="6">
@@ -6545,12 +7070,15 @@
         <v>2.3</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F140" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G140" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="6">
@@ -6566,12 +7094,15 @@
         <v>2.4</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F141" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G141" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="6">
@@ -6587,12 +7118,15 @@
         <v>1.8</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G142" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="6">
@@ -6608,12 +7142,15 @@
         <v>1.8</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F143" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G143" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="6">
@@ -6629,12 +7166,15 @@
         <v>2.1</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F144" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G144" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="6">
@@ -6650,12 +7190,15 @@
         <v>2.4</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F145" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G145" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="6">
@@ -6671,12 +7214,15 @@
         <v>2.3</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F146" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G146" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="6">
@@ -6692,12 +7238,15 @@
         <v>1.9</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F147" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G147" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="6">
@@ -6713,12 +7262,15 @@
         <v>2.3</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F148" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G148" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="6">
@@ -6734,12 +7286,15 @@
         <v>2.5</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G149" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="6">
@@ -6755,12 +7310,15 @@
         <v>2.3</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G150" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="6">
@@ -6776,12 +7334,15 @@
         <v>1.9</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G151" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="6">
@@ -6797,12 +7358,15 @@
         <v>2</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F152" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G152" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="6">
@@ -6818,12 +7382,15 @@
         <v>2.3</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F153" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G153" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="6">
@@ -6839,12 +7406,15 @@
         <v>1.8</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F154" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="G154" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Iris-virginica</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6853,6 +7423,9 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -6863,7 +7436,7 @@
   </sheetPr>
   <dimension ref="B3:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -6874,7 +7447,7 @@
   <sheetData>
     <row r="3" ht="15" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -6891,7 +7464,7 @@
     </row>
     <row r="4" ht="14.25" spans="2:6">
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -6900,7 +7473,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6">
         <f>MAX(_xlfn._xlws.FILTER(Sheet1!$A$5:$A$154,Sheet1!$F$5:$F$154=Sheet1!F5))</f>
@@ -6921,7 +7494,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6">
         <f>MIN(_xlfn._xlws.FILTER(Sheet1!$A$5:$A$154,Sheet1!$F$5:$F$154=Sheet1!F6))</f>
@@ -6942,7 +7515,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6">
         <f>AVERAGEIF(Sheet1!$F$5:$F$154,"setosa",Sheet1!$A$5:$A$154)</f>
@@ -6970,7 +7543,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -6979,7 +7552,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="6">
         <f>MAX(_xlfn._xlws.FILTER(Sheet1!$A$5:$A$154,Sheet1!$F$5:$F$154=Sheet1!F55))</f>
@@ -7000,7 +7573,7 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="6">
         <f>MIN(_xlfn._xlws.FILTER(Sheet1!$A$5:$A$154,Sheet1!$F$5:$F$154=Sheet1!F55))</f>
@@ -7021,7 +7594,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="6">
         <f>AVERAGEIF(Sheet1!$F$5:$F$154,"versicolor",Sheet1!$A$5:$A$154)</f>
@@ -7049,7 +7622,7 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -7058,7 +7631,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="6">
         <f>MAX(_xlfn._xlws.FILTER(Sheet1!$A$5:$A$154,Sheet1!$F$5:$F$154=Sheet1!F154))</f>
@@ -7079,7 +7652,7 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="6">
         <f>MIN(_xlfn._xlws.FILTER(Sheet1!$A$5:$A$154,Sheet1!$F$5:$F$154=Sheet1!F154))</f>
@@ -7100,7 +7673,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="6">
         <f>AVERAGEIF(Sheet1!$F$5:$F$154,"virginica",Sheet1!$A$5:$A$154)</f>
@@ -7136,4 +7709,20 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>